--- a/results_analysis/results_cov_D20.xlsx
+++ b/results_analysis/results_cov_D20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/results_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BCD0F0D-ACDB-4093-A280-1BB9CBFD9694}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEC69112-3574-4C07-B80B-80F171787E73}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cov_D_20 json ctr_vr" sheetId="31" r:id="rId1"/>
@@ -28,6 +28,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -258,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -268,10 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -5269,8 +5268,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5308,10 +5307,10 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>445294</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>553894</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>46237</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5337,6 +5336,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5742,7 +5745,7 @@
       <c r="C3">
         <v>10.369199999999999</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>1.00136688</v>
       </c>
     </row>
@@ -5756,7 +5759,7 @@
       <c r="C4">
         <v>15.820499999999999</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>1.54122008</v>
       </c>
     </row>
@@ -5770,7 +5773,7 @@
       <c r="C5">
         <v>18.796099999999999</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>0.50950295999999995</v>
       </c>
     </row>
@@ -5784,7 +5787,7 @@
       <c r="C6">
         <v>24.06</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>0.47861000999999997</v>
       </c>
     </row>
@@ -5798,7 +5801,7 @@
       <c r="C7">
         <v>26.941500000000001</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>4.3720870000000002E-2</v>
       </c>
     </row>
@@ -5812,7 +5815,7 @@
       <c r="C8">
         <v>29.814399999999999</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>5.3841599999999998E-3</v>
       </c>
     </row>
@@ -5826,7 +5829,7 @@
       <c r="C9">
         <v>32.789499999999997</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>6.4163999999999996E-4</v>
       </c>
     </row>
@@ -5840,7 +5843,7 @@
       <c r="C10">
         <v>38.1723</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>2.7392999999999997E-4</v>
       </c>
     </row>
@@ -8425,7 +8428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -8481,16 +8484,16 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <v>3.9806279999999999E-2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>3.8847449999999999E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>1.6791339999999998E-2</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>1.00136688</v>
       </c>
       <c r="F3" s="4"/>
@@ -8502,14 +8505,14 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>2.1629700000000002E-2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>2.1982970000000001E-2</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11">
+      <c r="D4" s="9"/>
+      <c r="E4" s="7">
         <v>1.54122008</v>
       </c>
       <c r="F4" s="7"/>
@@ -8518,14 +8521,14 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>1.348558E-2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="4">
         <v>1.228866E-2</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11">
+      <c r="D5" s="9"/>
+      <c r="E5" s="7">
         <v>0.50950295999999995</v>
       </c>
       <c r="F5" s="4"/>
@@ -8534,14 +8537,14 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>7.98601E-3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>6.8394600000000003E-3</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11">
+      <c r="D6" s="9"/>
+      <c r="E6" s="7">
         <v>0.47861000999999997</v>
       </c>
       <c r="F6" s="7"/>
@@ -8550,14 +8553,14 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>3.9342200000000004E-3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>3.0891E-3</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11">
+      <c r="D7" s="9"/>
+      <c r="E7" s="7">
         <v>4.3720870000000002E-2</v>
       </c>
       <c r="F7" s="4"/>
@@ -8566,14 +8569,14 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>1.50191E-3</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>8.2633999999999995E-4</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11">
+      <c r="D8" s="9"/>
+      <c r="E8" s="7">
         <v>5.3841599999999998E-3</v>
       </c>
       <c r="F8" s="7"/>
@@ -8582,14 +8585,14 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>6.3330999999999999E-4</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>5.0394999999999997E-4</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="11">
+      <c r="D9" s="9"/>
+      <c r="E9" s="7">
         <v>6.4163999999999996E-4</v>
       </c>
       <c r="F9" s="4"/>
@@ -8598,14 +8601,14 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>4.6911000000000001E-4</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>3.9500000000000001E-4</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9">
+      <c r="D10" s="9"/>
+      <c r="E10" s="4">
         <v>2.7392999999999997E-4</v>
       </c>
       <c r="F10" s="7"/>
@@ -8614,13 +8617,13 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="4">
         <v>2.8542999999999998E-4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>1.9316E-4</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
@@ -8628,13 +8631,13 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>3.3374000000000001E-4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>1.7594E-4</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
@@ -8642,13 +8645,13 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="4">
         <v>1.4474E-4</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="4">
         <v>9.4969999999999994E-5</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
@@ -8656,13 +8659,13 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>2.8269999999999999E-4</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>1.2845000000000001E-4</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
@@ -8670,13 +8673,13 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="4">
         <v>6.6339000000000003E-4</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="4">
         <v>3.4969999999999999E-5</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
@@ -8684,13 +8687,13 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>1.4417999999999999E-4</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
@@ -8698,13 +8701,13 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="4">
         <v>9.4337999999999996E-4</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="4">
         <v>2.0420000000000001E-5</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -8712,13 +8715,13 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>1.4520000000000001E-4</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="7">
         <v>4.7589999999999997E-5</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
@@ -8726,13 +8729,13 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="4">
         <v>8.4110000000000006E-5</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="4">
         <v>5.1250000000000004E-4</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
@@ -8740,13 +8743,13 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>2.2180000000000001E-5</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>7.6699999999999994E-6</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
@@ -8754,13 +8757,13 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="4">
         <v>2.0756E-4</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="4">
         <v>5.24E-5</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
@@ -8768,13 +8771,13 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>3.7780000000000002E-4</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>7.9000000000000006E-6</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
@@ -8782,13 +8785,13 @@
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="4">
         <v>1.6726999999999999E-4</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="4">
         <v>9.3059999999999993E-5</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
@@ -8796,13 +8799,13 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>1.9790000000000001E-4</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>6.8700000000000003E-6</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
@@ -8810,13 +8813,13 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="4">
         <v>8.4119000000000001E-4</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
@@ -8824,13 +8827,13 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>5.7169000000000002E-4</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <v>9.4599999999999992E-6</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
@@ -8838,13 +8841,13 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="4">
         <v>1.1493999999999999E-4</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="4">
         <v>5.4660000000000002E-5</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
@@ -8852,10 +8855,10 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <v>9.7662000000000009E-4</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>1.2300000000000001E-6</v>
       </c>
       <c r="D28" s="7"/>
@@ -8866,10 +8869,10 @@
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="4">
         <v>1.9149E-4</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="4">
         <v>1.3999999999999999E-6</v>
       </c>
       <c r="D29" s="4"/>
@@ -8880,10 +8883,10 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <v>1.7853000000000001E-4</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <v>2.7398E-4</v>
       </c>
       <c r="D30" s="7"/>
@@ -8894,10 +8897,10 @@
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="4">
         <v>9.734E-5</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="4">
         <v>2.0544000000000001E-4</v>
       </c>
       <c r="D31" s="4"/>
@@ -8908,10 +8911,10 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="7">
         <v>2.4457599999999999E-3</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="7">
         <v>1.7070000000000001E-5</v>
       </c>
       <c r="D32" s="7"/>
@@ -8922,10 +8925,10 @@
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="4">
         <v>5.3510000000000001E-5</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="4">
         <v>2.3644000000000001E-4</v>
       </c>
       <c r="D33" s="4"/>
@@ -8936,10 +8939,10 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="7">
         <v>5.5051999999999998E-4</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="7">
         <v>6.19E-6</v>
       </c>
       <c r="D34" s="7"/>
@@ -8950,10 +8953,10 @@
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="4">
         <v>5.5798999999999996E-4</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="4">
         <v>1.2034E-4</v>
       </c>
       <c r="D35" s="4"/>
@@ -8964,10 +8967,10 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="7">
         <v>3.9190000000000003E-5</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="7">
         <v>9.1999999999999998E-7</v>
       </c>
       <c r="D36" s="7"/>
@@ -8978,10 +8981,10 @@
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="4">
         <v>1.7671000000000001E-4</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="4">
         <v>4.2400000000000001E-6</v>
       </c>
       <c r="D37" s="4"/>
@@ -8992,10 +8995,10 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="7">
         <v>2.6760000000000001E-5</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="7">
         <v>6.97E-5</v>
       </c>
       <c r="D38" s="7"/>
@@ -9006,10 +9009,10 @@
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="4">
         <v>7.7869999999999998E-5</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="4">
         <v>4.3499999999999999E-6</v>
       </c>
       <c r="D39" s="4"/>
@@ -9020,10 +9023,10 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="7">
         <v>8.1353999999999997E-4</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="7">
         <v>4.5999999999999999E-7</v>
       </c>
       <c r="D40" s="7"/>
@@ -9034,10 +9037,10 @@
       <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="4">
         <v>4.6776000000000001E-4</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="4">
         <v>1.03E-5</v>
       </c>
       <c r="D41" s="4"/>
@@ -9048,10 +9051,10 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="7">
         <v>2.2374999999999999E-4</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="7">
         <v>1.469E-5</v>
       </c>
       <c r="D42" s="7"/>
@@ -9062,10 +9065,10 @@
       <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="4">
         <v>3.3152000000000002E-4</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="4">
         <v>2E-8</v>
       </c>
       <c r="D43" s="4"/>
@@ -9076,10 +9079,10 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="7">
         <v>9.3933999999999999E-4</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="7">
         <v>2E-8</v>
       </c>
       <c r="D44" s="7"/>
@@ -9090,10 +9093,10 @@
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="4">
         <v>3.1044999999999998E-4</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="4">
         <v>2E-8</v>
       </c>
       <c r="D45" s="4"/>
@@ -9104,10 +9107,10 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="7">
         <v>2.9553000000000001E-4</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="7">
         <v>2E-8</v>
       </c>
       <c r="D46" s="7"/>
@@ -9118,10 +9121,10 @@
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="4">
         <v>1.0558E-4</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="4">
         <v>2E-8</v>
       </c>
       <c r="D47" s="4"/>
@@ -9132,10 +9135,10 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="7">
         <v>3.6860000000000003E-5</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="7">
         <v>5.3669999999999999E-5</v>
       </c>
       <c r="D48" s="7"/>
@@ -9146,10 +9149,10 @@
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="4">
         <v>4.1170000000000001E-5</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="4">
         <v>6.7280000000000006E-5</v>
       </c>
       <c r="D49" s="4"/>
@@ -9160,10 +9163,10 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="7">
         <v>1.6368E-4</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <v>9.3289999999999996E-5</v>
       </c>
       <c r="D50" s="7"/>
@@ -9174,10 +9177,10 @@
       <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="4">
         <v>4.0330000000000002E-5</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="4">
         <v>1E-8</v>
       </c>
       <c r="D51" s="4"/>
@@ -9188,10 +9191,10 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="7">
         <v>1.8536E-4</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="7">
         <v>1E-8</v>
       </c>
       <c r="D52" s="7"/>
@@ -9843,7 +9846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC2CE8B-20A8-47E3-8AA4-309429EBAC54}">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -9877,1392 +9880,1392 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
+      <c r="A2" s="4">
         <v>3.9806279999999999E-2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="5">
         <v>1.1034999999999999</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>3.8847449999999999E-2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>4.0259999999999998</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="4">
         <v>0.36933409</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="5">
         <v>2.8896000000000002</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="4">
         <v>1.00136688</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="5">
         <v>5.0035999999999996</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>2.1629700000000002E-2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>2.2065000000000001</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>2.1982970000000001E-2</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>8.6585999999999999</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>1.26060035</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>5.7713000000000001</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <v>1.54122008</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="8">
         <v>10.369199999999999</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>1.348558E-2</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>3.2635999999999998</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>1.228866E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>13.046900000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>1.26249418</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>8.6188000000000002</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="4">
         <v>1.3521111800000001</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="5">
         <v>15.820499999999999</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>7.98601E-3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>4.3342000000000001</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>6.8394600000000003E-3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>14.337999999999999</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>1.9611536300000001</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>11.3622</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>0.50950295999999995</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <v>18.796099999999999</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>3.9342200000000004E-3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>5.4044999999999996</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>3.0891E-3</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>18.610099999999999</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="4">
         <v>1.6232061600000001</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>14.1976</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="4">
         <v>0.74661504999999995</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="5">
         <v>24.06</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>1.50191E-3</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>6.5788000000000002</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>8.2633999999999995E-4</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>19.840399999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>1.2554871599999999</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>17.064800000000002</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>0.66898139000000001</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <v>26.941500000000001</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>6.3330999999999999E-4</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>7.6413000000000002</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>5.0394999999999997E-4</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="5">
         <v>21.101099999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>1.0168010000000001</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>19.945499999999999</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="4">
         <v>0.54233039999999999</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="5">
         <v>29.814399999999999</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>4.6911000000000001E-4</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>8.9557000000000002</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>3.9500000000000001E-4</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>22.3826</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>0.92878983999999998</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <v>22.918500000000002</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>0.47861000999999997</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="8">
         <v>32.789499999999997</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>2.8542999999999998E-4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>10.0749</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>1.9316E-4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>26.900700000000001</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>0.69932344000000002</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>25.883900000000001</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="4">
         <v>0.31406838999999998</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="5">
         <v>38.1723</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>3.3374000000000001E-4</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>11.1273</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>1.7594E-4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>28.149100000000001</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>0.53944415000000001</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>28.8079</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>0.12849656000000001</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="8">
         <v>40.986199999999997</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>1.4474E-4</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <v>12.2835</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>9.4969999999999994E-5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>29.433399999999999</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>0.22197476999999999</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <v>31.7698</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="4">
         <v>7.5696609999999998E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="5">
         <v>43.847499999999997</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>2.8269999999999999E-4</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>13.369199999999999</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>1.2845000000000001E-4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>30.750599999999999</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>9.9370440000000004E-2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="8">
         <v>34.730600000000003</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>7.4010450000000005E-2</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="8">
         <v>46.709400000000002</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>6.6339000000000003E-4</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>14.551</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>3.4969999999999999E-5</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>31.9879</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="4">
         <v>6.6980750000000006E-2</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="5">
         <v>37.675800000000002</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="4">
         <v>6.3879809999999995E-2</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="5">
         <v>49.664000000000001</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>15.6144</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>1.4417999999999999E-4</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>33.259399999999999</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>7.3730610000000002E-2</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="8">
         <v>40.931600000000003</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>5.6544320000000002E-2</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <v>52.631999999999998</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>9.4337999999999996E-4</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>16.6876</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="4">
         <v>2.0420000000000001E-5</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <v>34.517600000000002</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="4">
         <v>6.5526189999999998E-2</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="5">
         <v>44.9773</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="4">
         <v>4.8733579999999999E-2</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="5">
         <v>55.443800000000003</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>1.4520000000000001E-4</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>17.7301</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>4.7589999999999997E-5</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>35.8429</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>5.0783630000000003E-2</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <v>48.051499999999997</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>4.3720870000000002E-2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <v>58.359699999999997</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>8.4110000000000006E-5</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>18.773099999999999</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>5.1250000000000004E-4</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="5">
         <v>40.323300000000003</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="4">
         <v>4.661742E-2</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="5">
         <v>51.250100000000003</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="4">
         <v>3.0142459999999999E-2</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="5">
         <v>63.736199999999997</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>2.2180000000000001E-5</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>19.8354</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>7.6699999999999994E-6</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <v>41.676000000000002</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>4.5909119999999998E-2</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="8">
         <v>54.932000000000002</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>2.3769019999999998E-2</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="8">
         <v>66.693299999999994</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>2.0756E-4</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>20.9178</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>5.24E-5</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <v>42.968699999999998</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="4">
         <v>4.0288780000000003E-2</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="5">
         <v>58.099699999999999</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="4">
         <v>2.0033780000000001E-2</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="5">
         <v>69.704300000000003</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>3.7780000000000002E-4</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>22.020299999999999</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>7.9000000000000006E-6</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>44.243699999999997</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>3.6858460000000003E-2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="8">
         <v>61.165599999999998</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>1.6309750000000001E-2</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="8">
         <v>72.734300000000005</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
+      <c r="A22" s="4">
         <v>1.6726999999999999E-4</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="5">
         <v>23.0412</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="4">
         <v>9.3059999999999993E-5</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <v>45.597200000000001</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="4">
         <v>3.5590499999999997E-2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="5">
         <v>64.081199999999995</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="4">
         <v>1.6184710000000001E-2</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="5">
         <v>75.790499999999994</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="11">
+      <c r="A23" s="7">
         <v>1.9790000000000001E-4</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>24.132200000000001</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>6.8700000000000003E-6</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>46.837499999999999</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <v>3.4790830000000002E-2</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="8">
         <v>67.010599999999997</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>1.3848360000000001E-2</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="8">
         <v>78.8596</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="9">
+      <c r="A24" s="4">
         <v>8.4119000000000001E-4</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="5">
         <v>25.151599999999998</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="4">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <v>48.115299999999998</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="4">
         <v>3.5003449999999998E-2</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="5">
         <v>70.017399999999995</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="4">
         <v>1.118296E-2</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="5">
         <v>81.724800000000002</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>5.7169000000000002E-4</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>26.2286</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>9.4599999999999992E-6</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>49.335900000000002</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <v>2.9400260000000001E-2</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <v>73.024900000000002</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>1.005253E-2</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <v>84.593999999999994</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="9">
+      <c r="A26" s="4">
         <v>1.1493999999999999E-4</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="5">
         <v>27.387799999999999</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="4">
         <v>5.4660000000000002E-5</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="5">
         <v>50.6434</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="4">
         <v>3.01991E-2</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="5">
         <v>76.096800000000002</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="4">
         <v>9.0484599999999995E-3</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="5">
         <v>87.414900000000003</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>9.7662000000000009E-4</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>28.485199999999999</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>1.2300000000000001E-6</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>51.914499999999997</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="7">
         <v>2.9789659999999999E-2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <v>79.395600000000002</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="7">
         <v>8.2771500000000005E-3</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="8">
         <v>90.252300000000005</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="9">
+      <c r="A28" s="4">
         <v>1.9149E-4</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="5">
         <v>29.6205</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="4">
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="5">
         <v>53.262</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="4">
         <v>3.2186279999999998E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="5">
         <v>82.2727</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="4">
         <v>7.4814199999999999E-3</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="5">
         <v>93.000200000000007</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>1.7853000000000001E-4</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="8">
         <v>30.678100000000001</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>2.7398E-4</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="8">
         <v>54.497100000000003</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <v>2.8826379999999999E-2</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="8">
         <v>85.091499999999996</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <v>7.0555399999999999E-3</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="8">
         <v>95.865300000000005</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="9">
+      <c r="A30" s="4">
         <v>9.734E-5</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="5">
         <v>32.117199999999997</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="4">
         <v>2.0544000000000001E-4</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="5">
         <v>55.780099999999997</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="4">
         <v>2.5543860000000002E-2</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="5">
         <v>88.534300000000002</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="4">
         <v>6.71858E-3</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="5">
         <v>98.701899999999995</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="11">
+      <c r="A31" s="7">
         <v>2.4457599999999999E-3</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="8">
         <v>33.184100000000001</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>1.7070000000000001E-5</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="8">
         <v>56.980200000000004</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <v>2.7086849999999999E-2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="8">
         <v>91.741799999999998</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>6.2945600000000003E-3</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="8">
         <v>101.7565</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="9">
+      <c r="A32" s="4">
         <v>5.3510000000000001E-5</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="5">
         <v>34.224899999999998</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="4">
         <v>2.3644000000000001E-4</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="5">
         <v>58.278599999999997</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="4">
         <v>2.6808019999999998E-2</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="5">
         <v>94.666600000000003</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="4">
         <v>5.7908300000000003E-3</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="5">
         <v>104.62479999999999</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="11">
+      <c r="A33" s="7">
         <v>5.5051999999999998E-4</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="8">
         <v>35.324599999999997</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>6.19E-6</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="8">
         <v>59.528199999999998</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="7">
         <v>2.674201E-2</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="8">
         <v>97.794499999999999</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>5.3841599999999998E-3</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="8">
         <v>107.4211</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+      <c r="A34" s="4">
         <v>5.5798999999999996E-4</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="5">
         <v>36.368200000000002</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="4">
         <v>1.2034E-4</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="5">
         <v>64.211799999999997</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="4">
         <v>2.520381E-2</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="5">
         <v>100.874</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="4">
         <v>4.7826700000000002E-3</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="5">
         <v>113.05719999999999</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="11">
+      <c r="A35" s="7">
         <v>3.9190000000000003E-5</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="8">
         <v>37.439799999999998</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>9.1999999999999998E-7</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>65.592699999999994</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="7">
         <v>2.3502820000000001E-2</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="8">
         <v>103.97629999999999</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="7">
         <v>4.3301900000000003E-3</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="8">
         <v>115.80629999999999</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>1.7671000000000001E-4</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="5">
         <v>38.4679</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="4">
         <v>4.2400000000000001E-6</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="5">
         <v>66.902900000000002</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="4">
         <v>2.3069369999999999E-2</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="5">
         <v>106.7957</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="4">
         <v>3.9411400000000001E-3</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="5">
         <v>118.5574</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="11">
+      <c r="A37" s="7">
         <v>2.6760000000000001E-5</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="8">
         <v>39.566299999999998</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>6.97E-5</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="8">
         <v>68.307900000000004</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="7">
         <v>2.1309249999999998E-2</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="8">
         <v>109.6343</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="7">
         <v>3.6015399999999999E-3</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="8">
         <v>121.3681</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="9">
+      <c r="A38" s="4">
         <v>7.7869999999999998E-5</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="5">
         <v>40.631900000000002</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="4">
         <v>4.3499999999999999E-6</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="5">
         <v>69.694400000000002</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="4">
         <v>2.038881E-2</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="5">
         <v>112.5621</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="4">
         <v>3.3024399999999998E-3</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="5">
         <v>124.13679999999999</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="11">
+      <c r="A39" s="7">
         <v>8.1353999999999997E-4</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="8">
         <v>41.746099999999998</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>4.5999999999999999E-7</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="8">
         <v>70.9863</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="7">
         <v>2.119325E-2</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="8">
         <v>115.4765</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="7">
         <v>3.0360000000000001E-3</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="8">
         <v>127.1319</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="9">
+      <c r="A40" s="4">
         <v>4.6776000000000001E-4</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="5">
         <v>42.820999999999998</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="4">
         <v>1.03E-5</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="5">
         <v>72.447500000000005</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="4">
         <v>2.1347359999999999E-2</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="5">
         <v>118.6902</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="4">
         <v>2.7994199999999999E-3</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="5">
         <v>129.91820000000001</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="11">
+      <c r="A41" s="7">
         <v>2.2374999999999999E-4</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="8">
         <v>43.875599999999999</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>1.469E-5</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="8">
         <v>73.740799999999993</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="7">
         <v>2.0883059999999998E-2</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="8">
         <v>121.5745</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="7">
         <v>2.5868100000000002E-3</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="8">
         <v>132.6883</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="9">
+      <c r="A42" s="4">
         <v>3.3152000000000002E-4</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="5">
         <v>44.930799999999998</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="4">
         <v>2E-8</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="5">
         <v>74.5124</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="4">
         <v>2.154418E-2</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="5">
         <v>124.56180000000001</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="4">
         <v>2.3981300000000001E-3</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="5">
         <v>135.6525</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="11">
+      <c r="A43" s="7">
         <v>9.3933999999999999E-4</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="8">
         <v>45.9985</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>2E-8</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="8">
         <v>75.031000000000006</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="7">
         <v>1.8422419999999998E-2</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="8">
         <v>127.3677</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="7">
         <v>2.2283300000000002E-3</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="8">
         <v>138.44220000000001</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="9">
+      <c r="A44" s="4">
         <v>3.1044999999999998E-4</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="5">
         <v>47.116199999999999</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="4">
         <v>2E-8</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="5">
         <v>75.578999999999994</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="4">
         <v>1.8573559999999999E-2</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="5">
         <v>130.27160000000001</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="4">
         <v>2.0725299999999999E-3</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="5">
         <v>141.1644</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
+      <c r="A45" s="7">
         <v>2.9553000000000001E-4</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="8">
         <v>48.135599999999997</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>2E-8</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="8">
         <v>76.107399999999998</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="7">
         <v>1.7699010000000001E-2</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="8">
         <v>133.2217</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="7">
         <v>1.9323400000000001E-3</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="8">
         <v>143.95429999999999</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="9">
+      <c r="A46" s="4">
         <v>1.0558E-4</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="5">
         <v>49.2425</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="4">
         <v>2E-8</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="5">
         <v>77.096400000000003</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="4">
         <v>1.822288E-2</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="5">
         <v>136.2492</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="4">
         <v>1.8040899999999999E-3</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="5">
         <v>146.74610000000001</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
+      <c r="A47" s="7">
         <v>3.6860000000000003E-5</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="8">
         <v>50.290599999999998</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>5.3669999999999999E-5</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="8">
         <v>78.396500000000003</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="7">
         <v>1.6981030000000001E-2</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="8">
         <v>139.19149999999999</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="7">
         <v>1.68889E-3</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="8">
         <v>149.55889999999999</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="9">
+      <c r="A48" s="4">
         <v>4.1170000000000001E-5</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="5">
         <v>51.320999999999998</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="4">
         <v>6.7280000000000006E-5</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="5">
         <v>79.637100000000004</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="4">
         <v>1.6781999999999998E-2</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="5">
         <v>141.99709999999999</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="4">
         <v>1.58435E-3</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="5">
         <v>152.3134</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="11">
+      <c r="A49" s="7">
         <v>1.6368E-4</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="8">
         <v>52.404000000000003</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>9.3289999999999996E-5</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="8">
         <v>80.946600000000004</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="7">
         <v>1.6791339999999998E-2</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="8">
         <v>144.8424</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="7">
         <v>1.4872399999999999E-3</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="8">
         <v>155.06829999999999</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="9">
+      <c r="A50" s="4">
         <v>4.0330000000000002E-5</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="5">
         <v>53.4221</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="4">
         <v>1E-8</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="5">
         <v>81.670900000000003</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="9">
+      <c r="G50" s="4">
         <v>1.3977E-3</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="5">
         <v>157.92189999999999</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="11">
+      <c r="A51" s="7">
         <v>1.8536E-4</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="8">
         <v>54.472099999999998</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>1E-8</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="8">
         <v>82.246200000000002</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="11">
+      <c r="G51" s="7">
         <v>1.31682E-3</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="8">
         <v>160.81649999999999</v>
       </c>
       <c r="I51" s="7"/>
@@ -11274,10 +11277,10 @@
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="9">
+      <c r="G52" s="4">
         <v>1.2420199999999999E-3</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="5">
         <v>163.62880000000001</v>
       </c>
       <c r="I52" s="4"/>
@@ -11289,10 +11292,10 @@
       <c r="D53" s="8"/>
       <c r="E53" s="7"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="11">
+      <c r="G53" s="7">
         <v>1.1737900000000001E-3</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="8">
         <v>166.47970000000001</v>
       </c>
       <c r="I53" s="7"/>
@@ -11304,10 +11307,10 @@
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="9">
+      <c r="G54" s="4">
         <v>1.10936E-3</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="5">
         <v>169.5522</v>
       </c>
       <c r="I54" s="4"/>
@@ -11319,10 +11322,10 @@
       <c r="D55" s="8"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="11">
+      <c r="G55" s="7">
         <v>1.0528499999999999E-3</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="8">
         <v>172.40440000000001</v>
       </c>
       <c r="I55" s="7"/>
@@ -11334,10 +11337,10 @@
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="9">
+      <c r="G56" s="4">
         <v>9.9802000000000007E-4</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="5">
         <v>175.25110000000001</v>
       </c>
       <c r="I56" s="4"/>
@@ -11349,10 +11352,10 @@
       <c r="D57" s="8"/>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="11">
+      <c r="G57" s="7">
         <v>9.4572000000000005E-4</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="8">
         <v>178.06739999999999</v>
       </c>
       <c r="I57" s="7"/>
@@ -11364,10 +11367,10 @@
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="9">
+      <c r="G58" s="4">
         <v>8.9813999999999996E-4</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="5">
         <v>180.97489999999999</v>
       </c>
       <c r="I58" s="4"/>
@@ -11379,10 +11382,10 @@
       <c r="D59" s="8"/>
       <c r="E59" s="7"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="11">
+      <c r="G59" s="7">
         <v>8.5265000000000004E-4</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="8">
         <v>183.7783</v>
       </c>
       <c r="I59" s="7"/>
@@ -11394,10 +11397,10 @@
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="9">
+      <c r="G60" s="4">
         <v>8.1130000000000004E-4</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="5">
         <v>186.7569</v>
       </c>
       <c r="I60" s="4"/>
@@ -11409,10 +11412,10 @@
       <c r="D61" s="8"/>
       <c r="E61" s="7"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="11">
+      <c r="G61" s="7">
         <v>7.7307000000000005E-4</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="8">
         <v>189.4922</v>
       </c>
       <c r="I61" s="7"/>
@@ -11424,10 +11427,10 @@
       <c r="D62" s="5"/>
       <c r="E62" s="4"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="9">
+      <c r="G62" s="4">
         <v>7.3738999999999999E-4</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="5">
         <v>192.32400000000001</v>
       </c>
       <c r="I62" s="4"/>
@@ -11439,10 +11442,10 @@
       <c r="D63" s="8"/>
       <c r="E63" s="7"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="11">
+      <c r="G63" s="7">
         <v>7.0264000000000004E-4</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="8">
         <v>195.16239999999999</v>
       </c>
       <c r="I63" s="7"/>
@@ -11454,10 +11457,10 @@
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="9">
+      <c r="G64" s="4">
         <v>6.7117000000000001E-4</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="5">
         <v>198.02690000000001</v>
       </c>
       <c r="I64" s="4"/>
@@ -11469,10 +11472,10 @@
       <c r="D65" s="8"/>
       <c r="E65" s="7"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="11">
+      <c r="G65" s="7">
         <v>6.4163999999999996E-4</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="8">
         <v>201.023</v>
       </c>
       <c r="I65" s="7"/>
@@ -11484,10 +11487,10 @@
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
       <c r="F66" s="5"/>
-      <c r="G66" s="9">
+      <c r="G66" s="4">
         <v>6.1193E-4</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="5">
         <v>206.43690000000001</v>
       </c>
       <c r="I66" s="4"/>
@@ -11499,10 +11502,10 @@
       <c r="D67" s="8"/>
       <c r="E67" s="7"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="11">
+      <c r="G67" s="7">
         <v>5.8436000000000002E-4</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="8">
         <v>209.2518</v>
       </c>
       <c r="I67" s="7"/>
@@ -11514,10 +11517,10 @@
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="9">
+      <c r="G68" s="4">
         <v>5.5851000000000002E-4</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="5">
         <v>212.09360000000001</v>
       </c>
       <c r="I68" s="4"/>
@@ -11529,10 +11532,10 @@
       <c r="D69" s="8"/>
       <c r="E69" s="7"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="11">
+      <c r="G69" s="7">
         <v>5.3419000000000003E-4</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="8">
         <v>214.88759999999999</v>
       </c>
       <c r="I69" s="7"/>
@@ -11544,10 +11547,10 @@
       <c r="D70" s="5"/>
       <c r="E70" s="4"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="9">
+      <c r="G70" s="4">
         <v>5.1128000000000002E-4</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="5">
         <v>217.74039999999999</v>
       </c>
       <c r="I70" s="4"/>
@@ -11559,10 +11562,10 @@
       <c r="D71" s="8"/>
       <c r="E71" s="7"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="11">
+      <c r="G71" s="7">
         <v>4.8968000000000004E-4</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="8">
         <v>220.4171</v>
       </c>
       <c r="I71" s="7"/>
@@ -11574,10 +11577,10 @@
       <c r="D72" s="5"/>
       <c r="E72" s="4"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="9">
+      <c r="G72" s="4">
         <v>4.6927999999999998E-4</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="5">
         <v>223.1942</v>
       </c>
       <c r="I72" s="4"/>
@@ -11588,10 +11591,10 @@
       <c r="D73" s="8"/>
       <c r="E73" s="7"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="11">
+      <c r="G73" s="7">
         <v>4.5000999999999998E-4</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="8">
         <v>226.03129999999999</v>
       </c>
       <c r="I73" s="7"/>
@@ -11602,10 +11605,10 @@
       <c r="D74" s="5"/>
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="9">
+      <c r="G74" s="4">
         <v>4.3179999999999998E-4</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="5">
         <v>228.97790000000001</v>
       </c>
       <c r="I74" s="4"/>
@@ -11616,10 +11619,10 @@
       <c r="D75" s="8"/>
       <c r="E75" s="7"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="11">
+      <c r="G75" s="7">
         <v>4.1456000000000002E-4</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="8">
         <v>232.11359999999999</v>
       </c>
       <c r="I75" s="7"/>
@@ -11630,10 +11633,10 @@
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="9">
+      <c r="G76" s="4">
         <v>3.9822000000000002E-4</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="5">
         <v>234.9751</v>
       </c>
       <c r="I76" s="4"/>
@@ -11644,10 +11647,10 @@
       <c r="D77" s="8"/>
       <c r="E77" s="7"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="11">
+      <c r="G77" s="7">
         <v>3.8275000000000001E-4</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="8">
         <v>237.80369999999999</v>
       </c>
       <c r="I77" s="7"/>
@@ -11658,10 +11661,10 @@
       <c r="D78" s="5"/>
       <c r="E78" s="4"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="9">
+      <c r="G78" s="4">
         <v>3.6807000000000002E-4</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="5">
         <v>240.67660000000001</v>
       </c>
       <c r="I78" s="4"/>
@@ -11672,10 +11675,10 @@
       <c r="D79" s="8"/>
       <c r="E79" s="7"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="11">
+      <c r="G79" s="7">
         <v>3.5413000000000003E-4</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="8">
         <v>243.6189</v>
       </c>
       <c r="I79" s="7"/>
@@ -11686,10 +11689,10 @@
       <c r="D80" s="5"/>
       <c r="E80" s="4"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="9">
+      <c r="G80" s="4">
         <v>3.4089999999999999E-4</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="5">
         <v>246.477</v>
       </c>
       <c r="I80" s="4"/>
@@ -11700,10 +11703,10 @@
       <c r="D81" s="8"/>
       <c r="E81" s="7"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="11">
+      <c r="G81" s="7">
         <v>3.2831000000000001E-4</v>
       </c>
-      <c r="H81" s="12">
+      <c r="H81" s="8">
         <v>249.31950000000001</v>
       </c>
       <c r="I81" s="7"/>
@@ -11714,10 +11717,10 @@
       <c r="D82" s="5"/>
       <c r="E82" s="4"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="9">
+      <c r="G82" s="4">
         <v>3.1635000000000002E-4</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="5">
         <v>251.95760000000001</v>
       </c>
       <c r="I82" s="4"/>
@@ -11728,10 +11731,10 @@
       <c r="D83" s="8"/>
       <c r="E83" s="7"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="11">
+      <c r="G83" s="7">
         <v>3.0496000000000001E-4</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="8">
         <v>254.95009999999999</v>
       </c>
       <c r="I83" s="7"/>
@@ -11742,10 +11745,10 @@
       <c r="D84" s="5"/>
       <c r="E84" s="4"/>
       <c r="F84" s="5"/>
-      <c r="G84" s="9">
+      <c r="G84" s="4">
         <v>2.9410999999999999E-4</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="5">
         <v>257.81150000000002</v>
       </c>
       <c r="I84" s="4"/>
@@ -11756,10 +11759,10 @@
       <c r="D85" s="8"/>
       <c r="E85" s="7"/>
       <c r="F85" s="8"/>
-      <c r="G85" s="11">
+      <c r="G85" s="7">
         <v>2.8378000000000002E-4</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="8">
         <v>260.6651</v>
       </c>
       <c r="I85" s="7"/>
@@ -11770,10 +11773,10 @@
       <c r="D86" s="5"/>
       <c r="E86" s="4"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="9">
+      <c r="G86" s="4">
         <v>2.7392999999999997E-4</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="5">
         <v>263.42529999999999</v>
       </c>
       <c r="I86" s="4"/>
